--- a/数据整理/stocks/A股/深证主板/000810-创维数字.xlsx
+++ b/数据整理/stocks/A股/深证主板/000810-创维数字.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,673 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9018</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7972</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4413</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000810-创维数字.xlsx
+++ b/数据整理/stocks/A股/深证主板/000810-创维数字.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.78</v>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6864</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1257,13 +1300,651 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5501</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013091</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2443</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013899</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013092</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013900</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015077</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000810-创维数字.xlsx
+++ b/数据整理/stocks/A股/深证主板/000810-创维数字.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,46 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>165524</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>信诚中证智能家居指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -598,36 +588,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>920003</t>
+          <t>398001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中金新锐股票A</t>
+          <t>中海优质成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.64</t>
+          <t>12.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9018</t>
+          <t>0.6864</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -636,36 +626,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007490</t>
+          <t>378010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方信息创新混合A</t>
+          <t>上投摩根成长先锋混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.90</t>
+          <t>17.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>90.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7972</t>
+          <t>0.5501</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -674,36 +664,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>398001</t>
+          <t>013091</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中海优质成长混合</t>
+          <t>上投摩根均衡优选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.42</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.86</t>
+          <t>81.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4413</t>
+          <t>0.2443</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -712,36 +702,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007731</t>
+          <t>013899</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>民生加银持续成长混合A</t>
+          <t>上投摩根全景优势股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>83.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1449</t>
+          <t>0.0813</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -750,36 +740,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>920923</t>
+          <t>006377</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中金新锐股票C</t>
+          <t>广发趋势动力灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>90.29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1442</t>
+          <t>0.0366</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -788,36 +778,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007491</t>
+          <t>013092</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方信息创新混合C</t>
+          <t>上投摩根均衡优选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>81.49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0943</t>
+          <t>0.0211</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -826,36 +816,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006457</t>
+          <t>004890</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平安估值优势灵活配置混合A</t>
+          <t>中邮健康文娱灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>83.56</t>
+          <t>84.86</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0862</t>
+          <t>0.0194</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -864,36 +854,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160518</t>
+          <t>000649</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+          <t>长城久鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79.96</t>
+          <t>86.07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0705</t>
+          <t>0.0159</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -902,36 +892,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006377</t>
+          <t>001613</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发趋势动力灵活配置混合</t>
+          <t>长城久祥灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>86.81</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.0154</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -940,36 +930,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001613</t>
+          <t>001252</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长城久祥灵活配置混合</t>
+          <t>中海进取收益灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88.54</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -978,36 +968,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001252</t>
+          <t>001795</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中海进取收益灵活配置混合</t>
+          <t>上投摩根文体休闲灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>90.93</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0095</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1016,27 +1006,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>165524</t>
+          <t>740001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>信诚中证智能家居指数（LOF）</t>
+          <t>长安宏观策略混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>91.88</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1045,7 +1035,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1054,12 +1044,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007732</t>
+          <t>009882</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>民生加银持续成长混合C</t>
+          <t>华润元大核心动力混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1069,17 +1059,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>71.40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0060</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1092,36 +1082,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>740001</t>
+          <t>013900</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长安宏观策略混合</t>
+          <t>上投摩根全景优势股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>71.93</t>
+          <t>83.30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1130,36 +1120,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001795</t>
+          <t>009883</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上投摩根文体休闲灵活配置混合</t>
+          <t>华润元大核心动力混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>74.91</t>
+          <t>71.40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1168,36 +1158,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006458</t>
+          <t>015077</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>平安估值优势灵活配置混合C</t>
+          <t>上投摩根成长先锋混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>83.56</t>
+          <t>90.30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1262,36 +1252,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>398001</t>
+          <t>920003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中海优质成长混合</t>
+          <t>中金新锐股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.17</t>
+          <t>24.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6864</t>
+          <t>0.9018</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1300,36 +1290,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>378010</t>
+          <t>007490</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根成长先锋混合</t>
+          <t>南方信息创新混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.63</t>
+          <t>21.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>91.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5501</t>
+          <t>0.7972</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1338,36 +1328,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013091</t>
+          <t>398001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根均衡优选混合A</t>
+          <t>中海优质成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>14.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.49</t>
+          <t>90.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2443</t>
+          <t>0.4413</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1376,36 +1366,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013899</t>
+          <t>007731</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根全景优势股票A</t>
+          <t>民生加银持续成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.30</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0813</t>
+          <t>0.1449</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1414,36 +1404,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006377</t>
+          <t>920923</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发趋势动力灵活配置混合</t>
+          <t>中金新锐股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.29</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0366</t>
+          <t>0.1442</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1452,36 +1442,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>013092</t>
+          <t>007491</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根均衡优选混合C</t>
+          <t>南方信息创新混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.49</t>
+          <t>91.22</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.0943</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1490,36 +1480,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004890</t>
+          <t>006457</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中邮健康文娱灵活配置混合</t>
+          <t>平安估值优势灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.86</t>
+          <t>83.56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0194</t>
+          <t>0.0862</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1528,36 +1518,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000649</t>
+          <t>160518</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长城久鑫灵活配置混合</t>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86.07</t>
+          <t>79.96</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0159</t>
+          <t>0.0705</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1566,36 +1556,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001613</t>
+          <t>006377</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长城久祥灵活配置混合</t>
+          <t>广发趋势动力灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>86.81</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0154</t>
+          <t>0.0403</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1604,36 +1594,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001252</t>
+          <t>001613</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中海进取收益灵活配置混合</t>
+          <t>长城久祥灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>88.54</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1642,36 +1632,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001795</t>
+          <t>001252</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上投摩根文体休闲灵活配置混合</t>
+          <t>中海进取收益灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>92.65</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.0095</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1680,27 +1670,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>740001</t>
+          <t>165524</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长安宏观策略混合</t>
+          <t>信诚中证智能家居指数（LOF）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1709,7 +1699,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1718,12 +1708,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009882</t>
+          <t>007732</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合A</t>
+          <t>民生加银持续成长混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1733,17 +1723,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>71.40</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1756,36 +1746,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>013900</t>
+          <t>740001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上投摩根全景优势股票C</t>
+          <t>长安宏观策略混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83.30</t>
+          <t>71.93</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1794,36 +1784,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009883</t>
+          <t>001795</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合C</t>
+          <t>上投摩根文体休闲灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>71.40</t>
+          <t>74.91</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1832,36 +1822,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>015077</t>
+          <t>006458</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上投摩根成长先锋混合C</t>
+          <t>平安估值优势灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>83.56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0074</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1886,17 +1876,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1906,46 +1916,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.78</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000810-创维数字.xlsx
+++ b/数据整理/stocks/A股/深证主板/000810-创维数字.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>2.78</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -537,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>398001</t>
+          <t>378010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中海优质成长混合</t>
+          <t>上投摩根成长先锋混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.17</t>
+          <t>13.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>83.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6864</t>
+          <t>0.5398</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -626,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>378010</t>
+          <t>370024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根成长先锋混合</t>
+          <t>上投摩根核心优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.63</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>78.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5501</t>
+          <t>0.2300</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -674,26 +691,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.49</t>
+          <t>76.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2443</t>
+          <t>0.2188</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -702,32 +719,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013899</t>
+          <t>001192</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根全景优势股票A</t>
+          <t>上投摩根整合驱动灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.30</t>
+          <t>92.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0813</t>
+          <t>0.1054</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -740,32 +757,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006377</t>
+          <t>013899</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发趋势动力灵活配置混合</t>
+          <t>上投摩根全景优势股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.29</t>
+          <t>81.01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0366</t>
+          <t>0.0755</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -778,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>013092</t>
+          <t>006377</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根均衡优选混合C</t>
+          <t>广发趋势动力灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.49</t>
+          <t>90.52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.0736</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -816,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004890</t>
+          <t>004809</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中邮健康文娱灵活配置混合</t>
+          <t>新疆前海联合润丰灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.86</t>
+          <t>87.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0194</t>
+          <t>0.0734</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -854,36 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000649</t>
+          <t>012904</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长城久鑫灵活配置混合</t>
+          <t>上投摩根鑫睿优选一年持有期混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86.07</t>
+          <t>74.92</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0159</t>
+          <t>0.0556</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -892,36 +909,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001613</t>
+          <t>013092</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长城久祥灵活配置混合</t>
+          <t>上投摩根均衡优选混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>86.81</t>
+          <t>76.63</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0154</t>
+          <t>0.0210</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -930,36 +947,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001252</t>
+          <t>004890</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中海进取收益灵活配置混合</t>
+          <t>中邮健康文娱灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>86.15</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.0176</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -968,32 +985,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001795</t>
+          <t>001613</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上投摩根文体休闲灵活配置混合</t>
+          <t>长城久祥灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>84.63</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1006,36 +1023,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>740001</t>
+          <t>009188</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长安宏观策略混合</t>
+          <t>鹏华股息精选混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>86.55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0108</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1044,32 +1061,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009882</t>
+          <t>015148</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合A</t>
+          <t>华安中证1000指数增强A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>71.40</t>
+          <t>91.03</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1082,36 +1099,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>013900</t>
+          <t>001795</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上投摩根全景优势股票C</t>
+          <t>上投摩根文体休闲灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83.30</t>
+          <t>89.97</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1120,32 +1137,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009883</t>
+          <t>003647</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合C</t>
+          <t>创金合信中证1000指数增强C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>71.40</t>
+          <t>90.54</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.0082</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1158,36 +1175,334 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>015149</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013900</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>016920</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015057</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>015077</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>上投摩根成长先锋混合C</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.30</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1252,36 +1567,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>920003</t>
+          <t>398001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中金新锐股票A</t>
+          <t>中海优质成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.64</t>
+          <t>12.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9018</t>
+          <t>0.6864</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1290,36 +1605,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007490</t>
+          <t>378010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方信息创新混合A</t>
+          <t>上投摩根成长先锋混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.90</t>
+          <t>17.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>90.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7972</t>
+          <t>0.5501</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1328,36 +1643,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>398001</t>
+          <t>013091</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中海优质成长混合</t>
+          <t>上投摩根均衡优选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.42</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.86</t>
+          <t>81.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4413</t>
+          <t>0.2443</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1366,36 +1681,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007731</t>
+          <t>013899</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>民生加银持续成长混合A</t>
+          <t>上投摩根全景优势股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>83.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1449</t>
+          <t>0.0813</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1404,36 +1719,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>920923</t>
+          <t>006377</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中金新锐股票C</t>
+          <t>广发趋势动力灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>90.29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1442</t>
+          <t>0.0366</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1442,36 +1757,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007491</t>
+          <t>013092</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方信息创新混合C</t>
+          <t>上投摩根均衡优选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>81.49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0943</t>
+          <t>0.0211</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1480,36 +1795,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006457</t>
+          <t>004890</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平安估值优势灵活配置混合A</t>
+          <t>中邮健康文娱灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>83.56</t>
+          <t>84.86</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0862</t>
+          <t>0.0194</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1518,36 +1833,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160518</t>
+          <t>000649</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+          <t>长城久鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79.96</t>
+          <t>86.07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0705</t>
+          <t>0.0159</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1556,36 +1871,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006377</t>
+          <t>001613</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发趋势动力灵活配置混合</t>
+          <t>长城久祥灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>86.81</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.0154</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1594,36 +1909,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001613</t>
+          <t>001252</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长城久祥灵活配置混合</t>
+          <t>中海进取收益灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88.54</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1632,36 +1947,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001252</t>
+          <t>001795</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中海进取收益灵活配置混合</t>
+          <t>上投摩根文体休闲灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>90.93</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0095</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1670,27 +1985,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>165524</t>
+          <t>740001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>信诚中证智能家居指数（LOF）</t>
+          <t>长安宏观策略混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>91.88</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1699,7 +2014,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1708,12 +2023,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007732</t>
+          <t>009882</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>民生加银持续成长混合C</t>
+          <t>华润元大核心动力混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1723,17 +2038,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>71.40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0060</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1746,36 +2061,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>740001</t>
+          <t>013900</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长安宏观策略混合</t>
+          <t>上投摩根全景优势股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>71.93</t>
+          <t>83.30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1784,36 +2099,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001795</t>
+          <t>009883</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上投摩根文体休闲灵活配置混合</t>
+          <t>华润元大核心动力混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>74.91</t>
+          <t>71.40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1822,36 +2137,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006458</t>
+          <t>015077</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>平安估值优势灵活配置混合C</t>
+          <t>上投摩根成长先锋混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>83.56</t>
+          <t>90.30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1860,6 +2175,670 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9018</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7972</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4413</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000810-创维数字.xlsx
+++ b/数据整理/stocks/A股/深证主板/000810-创维数字.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.48</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>2.78</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -549,6 +566,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>017462</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1503,670 +1840,6 @@
       </c>
       <c r="H25" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>398001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中海优质成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.17</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6864</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>378010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根成长先锋混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5501</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>013091</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根均衡优选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.49</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2443</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>013899</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上投摩根全景优势股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0813</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006377</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发趋势动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0366</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013092</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>上投摩根均衡优选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>81.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004890</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中邮健康文娱灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>84.86</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000649</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长城久鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.07</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001613</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长城久祥灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>86.81</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001252</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中海进取收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001795</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>上投摩根文体休闲灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>740001</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长安宏观策略混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.88</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009882</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>71.40</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>013900</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>上投摩根全景优势股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>83.30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009883</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>71.40</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>015077</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>上投摩根成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.30</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2231,36 +1904,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>920003</t>
+          <t>398001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中金新锐股票A</t>
+          <t>中海优质成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.64</t>
+          <t>12.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9018</t>
+          <t>0.6864</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2269,36 +1942,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007490</t>
+          <t>378010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方信息创新混合A</t>
+          <t>上投摩根成长先锋混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.90</t>
+          <t>17.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>90.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7972</t>
+          <t>0.5501</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2307,36 +1980,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>398001</t>
+          <t>013091</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中海优质成长混合</t>
+          <t>上投摩根均衡优选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.42</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.86</t>
+          <t>81.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4413</t>
+          <t>0.2443</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2345,36 +2018,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007731</t>
+          <t>013899</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>民生加银持续成长混合A</t>
+          <t>上投摩根全景优势股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>83.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1449</t>
+          <t>0.0813</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2383,36 +2056,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>920923</t>
+          <t>006377</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中金新锐股票C</t>
+          <t>广发趋势动力灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>90.29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1442</t>
+          <t>0.0366</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2421,36 +2094,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007491</t>
+          <t>013092</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方信息创新混合C</t>
+          <t>上投摩根均衡优选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>81.49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0943</t>
+          <t>0.0211</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2459,36 +2132,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006457</t>
+          <t>004890</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平安估值优势灵活配置混合A</t>
+          <t>中邮健康文娱灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>83.56</t>
+          <t>84.86</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0862</t>
+          <t>0.0194</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -2497,36 +2170,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160518</t>
+          <t>000649</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+          <t>长城久鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79.96</t>
+          <t>86.07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0705</t>
+          <t>0.0159</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2535,36 +2208,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006377</t>
+          <t>001613</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发趋势动力灵活配置混合</t>
+          <t>长城久祥灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>86.81</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.0154</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2573,36 +2246,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001613</t>
+          <t>001252</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长城久祥灵活配置混合</t>
+          <t>中海进取收益灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88.54</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -2611,36 +2284,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001252</t>
+          <t>001795</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中海进取收益灵活配置混合</t>
+          <t>上投摩根文体休闲灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>90.93</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0095</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -2649,27 +2322,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>165524</t>
+          <t>740001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>信诚中证智能家居指数（LOF）</t>
+          <t>长安宏观策略混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>91.88</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2678,7 +2351,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -2687,12 +2360,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007732</t>
+          <t>009882</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>民生加银持续成长混合C</t>
+          <t>华润元大核心动力混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2702,17 +2375,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>71.40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0060</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -2725,36 +2398,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>740001</t>
+          <t>013900</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长安宏观策略混合</t>
+          <t>上投摩根全景优势股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>71.93</t>
+          <t>83.30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -2763,36 +2436,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001795</t>
+          <t>009883</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上投摩根文体休闲灵活配置混合</t>
+          <t>华润元大核心动力混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>74.91</t>
+          <t>71.40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -2801,36 +2474,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006458</t>
+          <t>015077</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>平安估值优势灵活配置混合C</t>
+          <t>上投摩根成长先锋混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>83.56</t>
+          <t>90.30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2839,6 +2512,670 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9018</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7972</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4413</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
